--- a/data/trans_dic/P28B_1_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P28B_1_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -534,7 +535,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha dormido peor respecto al último mes</t>
+          <t>Población que ha dormido peor respecto al último mes (tasa de respuesta: 99,9%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -656,62 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>39,4%</t>
+          <t>37,52%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>22,0%</t>
+          <t>20,94%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>17,75%</t>
+          <t>17,08%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>14,34%</t>
+          <t>14,38%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>50,01%</t>
+          <t>52,01%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>25,06%</t>
+          <t>29,17%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>28,3%</t>
+          <t>32,14%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>22,86%</t>
+          <t>23,44%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>45,15%</t>
+          <t>45,39%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>23,67%</t>
+          <t>25,53%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>23,45%</t>
+          <t>25,14%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>18,8%</t>
+          <t>19,06%</t>
         </is>
       </c>
     </row>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>33,19; 45,92</t>
+          <t>29,48; 45,55</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>17,19; 29,38</t>
+          <t>14,95; 28,82</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>13,31; 23,03</t>
+          <t>11,45; 23,92</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>10,01; 19,44</t>
+          <t>8,94; 20,93</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>44,82; 55,94</t>
+          <t>45,11; 58,76</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>21,07; 30,28</t>
+          <t>23,13; 35,53</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>23,49; 32,8</t>
+          <t>26,06; 39,04</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>17,45; 27,44</t>
+          <t>18,32; 30,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>41,5; 49,22</t>
+          <t>39,87; 50,81</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>20,49; 27,83</t>
+          <t>20,85; 29,84</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>20,05; 26,68</t>
+          <t>20,95; 29,89</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>15,61; 22,2</t>
+          <t>14,91; 23,46</t>
         </is>
       </c>
     </row>
@@ -796,62 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>33,67%</t>
+          <t>30,73%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>19,66%</t>
+          <t>23,32%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>14,77%</t>
+          <t>16,36%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>11,81%</t>
+          <t>15,75%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>48,36%</t>
+          <t>51,04%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>26,34%</t>
+          <t>30,27%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>20,24%</t>
+          <t>21,16%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>22,33%</t>
+          <t>20,15%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>41,53%</t>
+          <t>41,59%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>23,18%</t>
+          <t>27,07%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>17,55%</t>
+          <t>18,83%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>17,11%</t>
+          <t>17,98%</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>27,87; 40,41</t>
+          <t>23,98; 39,98</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>14,47; 27,44</t>
+          <t>16,14; 34,18</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>10,27; 21,4</t>
+          <t>9,87; 26,93</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8,14; 16,35</t>
+          <t>10,32; 23,2</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>42,19; 54,89</t>
+          <t>42,81; 58,26</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>21,07; 32,64</t>
+          <t>22,93; 37,34</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>15,47; 25,71</t>
+          <t>15,25; 28,43</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>17,28; 28,94</t>
+          <t>14,17; 27,81</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>37,08; 46,34</t>
+          <t>35,38; 46,99</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>19,3; 27,67</t>
+          <t>22,26; 33,4</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>14,0; 21,39</t>
+          <t>14,1; 24,83</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>14,1; 21,84</t>
+          <t>13,37; 23,48</t>
         </is>
       </c>
     </row>
@@ -936,62 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>29,88%</t>
+          <t>26,2%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>24,28%</t>
+          <t>40,17%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>17,38%</t>
+          <t>21,27%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>10,84%</t>
+          <t>14,92%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>39,6%</t>
+          <t>43,24%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>29,28%</t>
+          <t>31,61%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>26,5%</t>
+          <t>28,21%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>22,21%</t>
+          <t>25,21%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>34,47%</t>
+          <t>34,61%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>26,7%</t>
+          <t>35,9%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>21,83%</t>
+          <t>24,78%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>16,17%</t>
+          <t>19,97%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>17,09; 42,72</t>
+          <t>8,55; 46,55</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>10,73; 51,82</t>
+          <t>14,79; 74,46</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>8,91; 30,7</t>
+          <t>7,65; 41,6</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,61; 21,77</t>
+          <t>4,27; 31,72</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>27,9; 52,77</t>
+          <t>27,8; 60,24</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>19,09; 41,71</t>
+          <t>19,29; 50,15</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>16,53; 37,94</t>
+          <t>15,29; 45,8</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>13,0; 32,88</t>
+          <t>12,19; 40,76</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>26,4; 44,04</t>
+          <t>21,49; 47,42</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>17,77; 41,4</t>
+          <t>21,17; 58,38</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>14,49; 30,77</t>
+          <t>14,43; 37,26</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>10,9; 23,51</t>
+          <t>11,75; 32,92</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>35,96%</t>
+          <t>33,51%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>21,32%</t>
+          <t>24,2%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>16,47%</t>
+          <t>17,22%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>12,89%</t>
+          <t>15,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>48,32%</t>
+          <t>50,78%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>25,99%</t>
+          <t>29,86%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>24,95%</t>
+          <t>27,36%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>22,59%</t>
+          <t>22,29%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>42,54%</t>
+          <t>42,75%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>23,8%</t>
+          <t>27,28%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>20,9%</t>
+          <t>22,52%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>17,83%</t>
+          <t>18,72%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>31,46; 40,35</t>
+          <t>28,04; 38,81</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>17,74; 26,78</t>
+          <t>19,25; 32,03</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>13,29; 20,26</t>
+          <t>13,29; 22,77</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>10,26; 15,99</t>
+          <t>11,2; 19,82</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>44,46; 52,29</t>
+          <t>45,42; 55,55</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>22,68; 29,9</t>
+          <t>25,12; 34,64</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>21,52; 28,29</t>
+          <t>22,87; 31,79</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>19,05; 26,15</t>
+          <t>18,2; 26,48</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>39,69; 45,67</t>
+          <t>38,67; 46,6</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>21,31; 26,89</t>
+          <t>23,79; 31,08</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>18,63; 23,36</t>
+          <t>19,24; 25,55</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>15,59; 20,49</t>
+          <t>16,06; 22,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1216,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha dormido peor respecto al último mes (tasa de respuesta: 99,9%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>104.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>165.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>92.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>137238</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>84379</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>62539</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>54758</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>226416</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>148423</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>135343</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>95514</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>363654</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>232802</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>197882</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>150272</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>107835; 166589</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>60246; 116130</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>41933; 87571</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>34051; 79697</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>196381; 255818</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>117706; 180810</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>109714; 164396</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>74645; 122227</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>319426; 407011</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>190098; 272091</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>164941; 235295</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>117507; 184965</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>120.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>93641</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>83827</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>52087</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>50527</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>178687</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>127844</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>71187</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>66637</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>272328</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>211672</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>123273</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>117164</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>73066; 121831</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>57997; 122857</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>31434; 85734</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>33098; 74431</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>149888; 203971</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>96873; 157724</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>51300; 95617</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>46887; 91983</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>231652; 307661</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>174052; 261087</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>92294; 162533</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>87110; 152979</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>22226</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>40882</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>16932</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>12770</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>35724</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>31980</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>23005</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>20810</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>57950</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>72863</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>39937</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>33580</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>7252; 39483</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>15056; 75772</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>6090; 33114</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>3653; 27150</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>22964; 49768</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>19510; 50733</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>12473; 37348</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>10065; 33649</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>35981; 79400</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>42967; 118477</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>23256; 60049</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>19755; 55350</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>109.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>200.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>120.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>110.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>92.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>309.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>187.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>164.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>142.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>253105</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>209089</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>131557</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>118056</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>440827</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>308248</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>229534</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>182961</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>693932</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>517337</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>361091</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>301017</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>211791; 293089</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>166311; 276791</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>101516; 174003</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>88143; 156006</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>394264; 482229</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>259391; 357585</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>191906; 266717</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>149402; 217366</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>627690; 756449</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>451253; 589338</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>308516; 409630</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>258295; 353770</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>